--- a/Pickles/Courses for Course Load Submission EEE.xlsx
+++ b/Pickles/Courses for Course Load Submission EEE.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,171 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ECE F343</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>COMMUNICATION NETWORKS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABHIJIT PETHE </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ANUPAMA K R</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EEE F341</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ANALOG ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABHIJIT PETHE </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANJLI VARGHESE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ABHIJIT PETHE /ANJLI VARGHESE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANJLI VARGHESE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL,ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL,ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Pickles/Courses for Course Load Submission EEE.xlsx
+++ b/Pickles/Courses for Course Load Submission EEE.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,33 +495,33 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AMALIN PRINCE</t>
+          <t xml:space="preserve">ASHISH CHITTORA </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ABHIJIT PETHE /ANSA SHERMIN S</t>
+          <t>ANITA B AGRAWAL/ANSA SHERMIN S</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ANITA B AGRAWAL/ANAGHA RAJENDRAN K P</t>
+          <t>ANUPAMA K R/AMAYA ROSE ABRAHAM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AMALIN PRINCE/ANITA B AGRAWAL/ANJLI VARGHESE</t>
+          <t>ANUPAMA K R/ANJLI VARGHESE</t>
         </is>
       </c>
     </row>
@@ -545,19 +545,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ANITA B AGRAWAL,ANSA SHERMIN S</t>
+          <t>AMALIN PRINCE,ANAGHA RAJENDRAN K P</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MEL G641</t>
+          <t>EEE F341</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CAD FOR IC DESIGN</t>
+          <t>ANALOG ELECTRONICS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -570,27 +570,42 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ANURAG NISHAD</t>
+          <t xml:space="preserve">ABHIJIT PETHE </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>AMALIN PRINCE/ANAGHA RAJENDRAN K P</t>
+          <t>AMALIN PRINCE/ANSA SHERMIN S</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MEL G641</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CAD FOR IC DESIGN</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABHIJIT PETHE </t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ABHIJIT PETHE /ANJLI VARGHESE</t>
+          <t>ABHIJIT PETHE /AMAYA ROSE ABRAHAM</t>
         </is>
       </c>
     </row>
@@ -605,202 +620,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ABHIJIT PETHE /ANAGHA RAJENDRAN K P</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AMALIN PRINCE,ANJLI VARGHESE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>AMALIN PRINCE,ANAGHA RAJENDRAN K P</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ECE F343</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>COMMUNICATION NETWORKS</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ABHIJIT PETHE </t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ANUPAMA K R</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ANITA B AGRAWAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ANITA B AGRAWAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EEE F341</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANALOG ELECTRONICS</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ABHIJIT PETHE </t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>ANITA B AGRAWAL/ANJLI VARGHESE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>ANITA B AGRAWAL/ANAGHA RAJENDRAN K P</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>ABHIJIT PETHE /ANJLI VARGHESE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>ANITA B AGRAWAL/ANJLI VARGHESE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>ANITA B AGRAWAL,ANAGHA RAJENDRAN K P</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>ANITA B AGRAWAL,ANAGHA RAJENDRAN K P</t>
         </is>
       </c>
     </row>

--- a/Pickles/Courses for Course Load Submission EEE.xlsx
+++ b/Pickles/Courses for Course Load Submission EEE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EEE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EEE" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,156 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ECE F343</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COMMUNICATION NETWORKS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABHIJIT PETHE </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANJLI VARGHESE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANJLI VARGHESE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AMALIN PRINCE,ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EEE F242</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CONTROL SYSTEMS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DIPANKAR PAL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ANUPAMA K R/ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ANITA B AGRAWAL/ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ANUPAMA K R/ANAGHA RAJENDRAN K P</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AMALIN PRINCE,ANJLI VARGHESE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
